--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3543EAD8-C76E-4635-AA94-454B0DC075B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF0183-8206-44A6-8AF4-5DDE49FFC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,16 +362,10 @@
     <t>https://www.thonk.co.uk/shop/tall-trimmer-toppers/</t>
   </si>
   <si>
-    <t>B10k</t>
-  </si>
-  <si>
     <t>6mm Trimpot</t>
   </si>
   <si>
     <t>Trimmer THT</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/rkt6v-10k/single-turn-tht-trimmers/sr-passives/</t>
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/rkt6v-100k/single-turn-tht-trimmers/sr-passives/</t>
@@ -541,6 +535,12 @@
       </rPr>
       <t>******</t>
     </r>
+  </si>
+  <si>
+    <t>B20k</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -1618,19 +1618,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
         <v>106</v>
       </c>
-      <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1641,16 +1641,16 @@
         <v>93</v>
       </c>
       <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" t="s">
         <v>106</v>
       </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
         <v>67</v>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
@@ -1847,7 +1847,7 @@
         <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>77</v>
@@ -1984,7 +1984,7 @@
         <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -1995,13 +1995,13 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -2083,13 +2083,13 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,27 +2110,27 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">

--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF0183-8206-44A6-8AF4-5DDE49FFC852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11B3EE-8D20-4592-8514-F92CDD534050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>Qty</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1462,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,6 +1992,9 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="F26" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -2006,6 +2012,9 @@
       <c r="E27" t="s">
         <v>26</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -2022,6 +2031,9 @@
       </c>
       <c r="E28" t="s">
         <v>26</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2182,6 +2194,9 @@
     <hyperlink ref="F8" r:id="rId25" xr:uid="{8EF245E9-A8EB-4201-BC07-0FBF381FF66F}"/>
     <hyperlink ref="F9" r:id="rId26" xr:uid="{4AE9100C-997D-4003-B37A-A25D3512342D}"/>
     <hyperlink ref="F33" r:id="rId27" xr:uid="{908C5348-17D7-474A-8258-C59855842B28}"/>
+    <hyperlink ref="F26" r:id="rId28" xr:uid="{56A73993-B2DB-4837-AFF8-25F5156F7AF0}"/>
+    <hyperlink ref="F27" r:id="rId29" xr:uid="{D08A31B4-39E6-4E55-8548-0981C02FC257}"/>
+    <hyperlink ref="F28" r:id="rId30" xr:uid="{FE8D99FE-F126-4D68-9F66-9C5F628C4A63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B11B3EE-8D20-4592-8514-F92CDD534050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A59FCBA-578D-4C55-8196-A6B0F171E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
   <si>
     <t>Qty</t>
   </si>
@@ -544,6 +544,9 @@
   </si>
   <si>
     <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1465,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>

--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A59FCBA-578D-4C55-8196-A6B0F171E1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0EC80D-CEBA-4592-AD67-F971168C66A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,12 +98,6 @@
     <t>DO-41</t>
   </si>
   <si>
-    <t>C-5mm</t>
-  </si>
-  <si>
-    <t>E2.5-6.3</t>
-  </si>
-  <si>
     <t>Resistor THT</t>
   </si>
   <si>
@@ -125,19 +119,10 @@
     <t>U4</t>
   </si>
   <si>
-    <t>R-W4</t>
-  </si>
-  <si>
     <t>DIP-14 Socket</t>
   </si>
   <si>
     <t>IC Socket</t>
-  </si>
-  <si>
-    <t>Capacitor Ceramic THT</t>
-  </si>
-  <si>
-    <t>Capacitor Polarized THT</t>
   </si>
   <si>
     <t>Parts in itallic are on the front PCB!</t>
@@ -431,31 +416,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>*****</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>E2.5-5</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>***</t>
     </r>
   </si>
   <si>
@@ -547,6 +507,46 @@
   </si>
   <si>
     <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <r>
+      <t>E-P2.5mm 5x5mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -1507,16 +1507,16 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1527,16 +1527,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1547,16 +1547,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1564,19 +1564,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1587,16 +1587,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1604,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1624,19 +1624,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1644,19 +1644,19 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1664,19 +1664,19 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1687,56 +1687,56 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>117</v>
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1750,13 +1750,13 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,13 +1770,13 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1784,19 +1784,19 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,19 +1804,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1824,19 +1824,19 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1844,19 +1844,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1870,13 +1870,13 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1884,19 +1884,19 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1904,19 +1904,19 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1924,19 +1924,19 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1944,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1964,19 +1964,19 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,19 +1984,19 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,19 +2004,19 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,19 +2024,19 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,16 +2044,16 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2061,16 +2061,16 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,16 +2078,16 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,52 +2120,52 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2176,7 +2176,7 @@
     <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>

--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0EC80D-CEBA-4592-AD67-F971168C66A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB5E85F-500B-4492-A122-26DF8F963511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>VU LED Driver</t>
-  </si>
-  <si>
-    <t>**** Needs to be a low profile capacitor, or bent sideways.</t>
   </si>
   <si>
     <t>***** Use a different IC for different VU response cuirve! LM3915 and LM3916 might be difficult to find. See the list below. NOTE: I was supplied relabeled LM3914 chips when I ordered the other ones. They were essentially "fake".</t>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>**** Needs to be a low profile capacitor,  maximum of 5mm in height, or bent sideways.</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>57</v>
@@ -1527,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>73</v>
@@ -1567,7 +1567,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>54</v>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
         <v>108</v>
@@ -1607,7 +1607,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>100</v>
@@ -1636,7 +1636,7 @@
         <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1667,13 +1667,13 @@
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>65</v>
@@ -1687,13 +1687,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>34</v>
@@ -1707,13 +1707,13 @@
         <v>60</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>61</v>
@@ -1727,13 +1727,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>35</v>
@@ -1964,7 +1964,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1990,13 +1990,13 @@
         <v>95</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,17 +2135,17 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">

--- a/Modules/VU/VU_BOM.xlsx
+++ b/Modules/VU/VU_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Dev\Modular Synth\Avalon Harmonics\VU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB5E85F-500B-4492-A122-26DF8F963511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A4A26B-C797-4F6D-A8A8-585C19DEEE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VU" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
   <si>
     <t>Qty</t>
   </si>
@@ -125,9 +125,6 @@
     <t>IC Socket</t>
   </si>
   <si>
-    <t>Parts in itallic are on the front PCB!</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -137,21 +134,6 @@
     <t>https://www.aliexpress.com/item/1005003256812123.html</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -230,9 +212,6 @@
     <t>C7</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/cct-47p_50v/mlcc-tht-capacitors/sr-passives/ct40805n470j500f3r/</t>
-  </si>
-  <si>
     <t>D1, D2</t>
   </si>
   <si>
@@ -248,14 +227,92 @@
     <t>TL074</t>
   </si>
   <si>
-    <t>https://www.tme.eu/hr/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/33015029695.html</t>
   </si>
   <si>
-    <r>
-      <t>R7, R8, R9, R11, R12, R21, R22, R23, R24, R25, R26, R27, R28, R29</t>
+    <t>* Resistors R21-R29 control the brightness of the LEDs. The LEDs chosen in combination with these resistor values ensure low power consumption.</t>
+  </si>
+  <si>
+    <t>DIP-18</t>
+  </si>
+  <si>
+    <t>OSY5PA3NE4A</t>
+  </si>
+  <si>
+    <t>OSO5PA3NE4A</t>
+  </si>
+  <si>
+    <t>OSR5PA3NE4A</t>
+  </si>
+  <si>
+    <t>LED Yellow</t>
+  </si>
+  <si>
+    <t>LED Red</t>
+  </si>
+  <si>
+    <t>B100k</t>
+  </si>
+  <si>
+    <t>Pot 9mm Tall Trimmer</t>
+  </si>
+  <si>
+    <t>Potentiometer Plastic</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/ttpots/</t>
+  </si>
+  <si>
+    <t>A1M</t>
+  </si>
+  <si>
+    <t>P_HOLD</t>
+  </si>
+  <si>
+    <t>1x6</t>
+  </si>
+  <si>
+    <t>Male Header 2.54mm Angled</t>
+  </si>
+  <si>
+    <t>1x5</t>
+  </si>
+  <si>
+    <t>Thonk Trimmer Topper</t>
+  </si>
+  <si>
+    <t>Trimmer Knob</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/tall-trimmer-toppers/</t>
+  </si>
+  <si>
+    <t>6mm Trimpot</t>
+  </si>
+  <si>
+    <t>Trimmer THT</t>
+  </si>
+  <si>
+    <t>1x2</t>
+  </si>
+  <si>
+    <t>J_BAR</t>
+  </si>
+  <si>
+    <t>Jumper 2.54mm</t>
+  </si>
+  <si>
+    <t>Jumper</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001470793144.html</t>
+  </si>
+  <si>
+    <t>R1, R4</t>
+  </si>
+  <si>
+    <r>
+      <t>T_GAIN</t>
     </r>
     <r>
       <rPr>
@@ -265,132 +322,181 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>***</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T_LED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>**</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LM391x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*****</t>
+    </r>
+  </si>
+  <si>
+    <t>** Brightness of the last LED can be controlled using the T_LED trimmer.</t>
+  </si>
+  <si>
+    <t>*** Input gain can be adjusted using the T_GAIN trimmer. This does not affect the output of the OUT jack.</t>
+  </si>
+  <si>
+    <t>VU LED Driver</t>
+  </si>
+  <si>
+    <t>***** Use a different IC for different VU response cuirve! LM3915 and LM3916 might be difficult to find. See the list below. NOTE: I was supplied relabeled LM3914 chips when I ordered the other ones. They were essentially "fake".</t>
+  </si>
+  <si>
+    <t>****** Solder the plastic side of the angled header on the J_B side, and the metal on J_A side. Cut off the excess length.</t>
+  </si>
+  <si>
+    <t>B20k</t>
+  </si>
+  <si>
+    <t>Thonkiconn</t>
+  </si>
+  <si>
+    <t>R-1/4W</t>
+  </si>
+  <si>
+    <t>C-P5mm</t>
+  </si>
+  <si>
+    <t>E-P2.5mm 6.3x11.5mm</t>
+  </si>
+  <si>
+    <r>
+      <t>E-P2.5mm 5x5mm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
       <t>*</t>
     </r>
-  </si>
-  <si>
-    <t>* Resistors R21-R29 control the brightness of the LEDs. The LEDs chosen in combination with these resistor values ensure low power consumption.</t>
-  </si>
-  <si>
-    <t>DIP-18</t>
-  </si>
-  <si>
-    <t>OSY5PA3NE4A</t>
-  </si>
-  <si>
-    <t>OSO5PA3NE4A</t>
-  </si>
-  <si>
-    <t>OSR5PA3NE4A</t>
-  </si>
-  <si>
-    <t>LED Yellow</t>
-  </si>
-  <si>
-    <t>LED Red</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/osy5pa3ne4a/tht-leds-round/optosupply/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/oso5pa3ne4a/tht-leds-round/optosupply/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/osr5pa3ne4a/tht-leds-round/optosupply/</t>
-  </si>
-  <si>
-    <t>LD1, LD2, LD3, LD4, LD5</t>
-  </si>
-  <si>
-    <t>LD6, LD7, LD8</t>
-  </si>
-  <si>
-    <t>LD9, LD10</t>
-  </si>
-  <si>
-    <t>J_IN, J_PEAK, J_OUT</t>
-  </si>
-  <si>
-    <t>B100k</t>
-  </si>
-  <si>
-    <t>Pot 9mm Tall Trimmer</t>
-  </si>
-  <si>
-    <t>Potentiometer Plastic</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/ttpots/</t>
-  </si>
-  <si>
-    <t>A1M</t>
-  </si>
-  <si>
-    <t>P_HOLD</t>
-  </si>
-  <si>
-    <t>1x6</t>
-  </si>
-  <si>
-    <t>Male Header 2.54mm Angled</t>
-  </si>
-  <si>
-    <t>1x5</t>
-  </si>
-  <si>
-    <t>Thonk Trimmer Topper</t>
-  </si>
-  <si>
-    <t>Trimmer Knob</t>
-  </si>
-  <si>
-    <t>https://www.thonk.co.uk/shop/tall-trimmer-toppers/</t>
-  </si>
-  <si>
-    <t>6mm Trimpot</t>
-  </si>
-  <si>
-    <t>Trimmer THT</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/rkt6v-100k/single-turn-tht-trimmers/sr-passives/</t>
-  </si>
-  <si>
-    <t>1x2</t>
-  </si>
-  <si>
-    <t>J_BAR</t>
-  </si>
-  <si>
-    <t>Jumper 2.54mm</t>
-  </si>
-  <si>
-    <t>Jumper</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005001470793144.html</t>
-  </si>
-  <si>
-    <t>R1, R4</t>
-  </si>
-  <si>
-    <r>
-      <t>T_GAIN</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>***</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>T_LED</t>
+    <t>Ceramic Capacitor THT</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor THT</t>
+  </si>
+  <si>
+    <t>**** Needs to be a low profile capacitor,  maximum of 5mm in height, or bent sideways.</t>
+  </si>
+  <si>
+    <t>Avalon Harmonics VU</t>
+  </si>
+  <si>
+    <t>Alt Link</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/rkt6v-100k/single-turn-tht-trimmers/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cct-47p_50v/mlcc-tht-capacitors/sr-passives/ct40805n470j500f3r/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/cm-100n-x7r_100/mlcc-tht-capacitors/sr-passives/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/jrg-47u_35/tht-electrolytic-capacitors/jb-capacitors/jrg1v470m02500630115000b/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4001-dio/tht-universal-diodes/diotec-semiconductor/1n4001/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/1n4148-dio/tht-universal-diodes/diotec-semiconductor/1n4148/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/tl074acn/tht-operational-amplifiers/texas-instruments/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/l78l05abz/unregulated-voltage-regulators/stmicroelectronics/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/osy5pa3ne4a/tht-leds-round/optosupply/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/oso5pa3ne4a/tht-leds-round/optosupply/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/osr5pa3ne4a/tht-leds-round/optosupply/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p041/73P0029/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p046/73P0034/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p050/73P0038/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p051/73P0039/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/quadrios/wirewound-resistors/22p054/73P0042/</t>
+  </si>
+  <si>
+    <t>https://www.buerklin.com/en/p/vishay/wirewound-resistors/mba02040c3303fct00/14E765/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-14p/standard-dip-sockets/connfly/ds1009-14at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/de/en/details/icvt-18p/standard-dip-sockets/connfly/ds1009-18at1nx-0a2/</t>
+  </si>
+  <si>
+    <t>Parts  with underline are on the front PCB!</t>
+  </si>
+  <si>
+    <r>
+      <t>R7, R8, R9, R11, R12, R21-R28, R29</t>
     </r>
     <r>
       <rPr>
@@ -400,12 +506,198 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>**</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LM391x</t>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LD10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_PEAK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_OUT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B1</t>
     </r>
     <r>
       <rPr>
@@ -415,31 +707,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>*****</t>
-    </r>
-  </si>
-  <si>
-    <t>** Brightness of the last LED can be controlled using the T_LED trimmer.</t>
-  </si>
-  <si>
-    <t>*** Input gain can be adjusted using the T_GAIN trimmer. This does not affect the output of the OUT jack.</t>
-  </si>
-  <si>
-    <t>VU LED Driver</t>
-  </si>
-  <si>
-    <t>***** Use a different IC for different VU response cuirve! LM3915 and LM3916 might be difficult to find. See the list below. NOTE: I was supplied relabeled LM3914 chips when I ordered the other ones. They were essentially "fake".</t>
-  </si>
-  <si>
-    <t>****** Solder the plastic side of the angled header on the J_B side, and the metal on J_A side. Cut off the excess length.</t>
-  </si>
-  <si>
-    <r>
-      <t>J_B1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>******</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B2</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -450,18 +742,27 @@
     </r>
     <r>
       <rPr>
-        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, J_B2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J_B3</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -470,83 +771,6 @@
       </rPr>
       <t>******</t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, J_B3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>******</t>
-    </r>
-  </si>
-  <si>
-    <t>B20k</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/rkt6v-20k/single-turn-tht-trimmers/sr-passives/</t>
-  </si>
-  <si>
-    <t>https://www.tme.eu/hr/en/details/zl211-40kg-s/pin-headers/connfly/ds1022-1-40ruf11/</t>
-  </si>
-  <si>
-    <t>Thonkiconn</t>
-  </si>
-  <si>
-    <t>R-1/4W</t>
-  </si>
-  <si>
-    <t>C-P5mm</t>
-  </si>
-  <si>
-    <t>E-P2.5mm 6.3x11.5mm</t>
-  </si>
-  <si>
-    <r>
-      <t>E-P2.5mm 5x5mm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>***</t>
-    </r>
-  </si>
-  <si>
-    <t>Ceramic Capacitor THT</t>
-  </si>
-  <si>
-    <t>Electrolytic Capacitor THT</t>
-  </si>
-  <si>
-    <t>**** Needs to be a low profile capacitor,  maximum of 5mm in height, or bent sideways.</t>
   </si>
 </sst>
 </file>
@@ -725,14 +949,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -753,9 +969,17 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1103,19 +1327,21 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1462,10 +1688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,733 +1699,839 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
-      <c r="C2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="F15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="F16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="F21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>3</v>
-      </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>85</v>
+      <c r="D22" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="J22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>86</v>
+      <c r="D23" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>3</v>
-      </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>87</v>
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>117</v>
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="J27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>24</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+        <v>123</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>2</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="F13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="F15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="F20" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F25" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F30" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="F5" r:id="rId14" xr:uid="{63E498A3-A2A4-4285-9155-1BD341D4DCB5}"/>
-    <hyperlink ref="F7" r:id="rId15" xr:uid="{E7FE330F-8A3B-4669-8B30-2C9E9A5FC581}"/>
-    <hyperlink ref="F10" r:id="rId16" xr:uid="{B28DEF61-CF1F-4F61-AD51-8A23E6AFB24D}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{69B674E5-918E-4C55-9473-EE3B4A218C54}"/>
-    <hyperlink ref="F18" r:id="rId18" xr:uid="{D29AE626-DF4E-4773-AA8D-0524E4224C52}"/>
-    <hyperlink ref="F19" r:id="rId19" xr:uid="{A59D37D6-A940-423C-9F03-07E51A21CDF8}"/>
-    <hyperlink ref="F21" r:id="rId20" xr:uid="{82E34BDF-736F-4F98-A76A-B89827876B4D}"/>
-    <hyperlink ref="F22" r:id="rId21" xr:uid="{BA0C518E-2948-45FD-9328-DAE3823EA657}"/>
-    <hyperlink ref="F23" r:id="rId22" xr:uid="{ABDD5C1F-0AC0-49FC-B475-2179875D8E55}"/>
-    <hyperlink ref="F24" r:id="rId23" xr:uid="{4B9DD349-A0F7-425B-94BE-B03C8415B82A}"/>
-    <hyperlink ref="F32" r:id="rId24" xr:uid="{4A11A930-DB4E-4E4A-837D-1777192D19A3}"/>
-    <hyperlink ref="F8" r:id="rId25" xr:uid="{8EF245E9-A8EB-4201-BC07-0FBF381FF66F}"/>
-    <hyperlink ref="F9" r:id="rId26" xr:uid="{4AE9100C-997D-4003-B37A-A25D3512342D}"/>
-    <hyperlink ref="F33" r:id="rId27" xr:uid="{908C5348-17D7-474A-8258-C59855842B28}"/>
-    <hyperlink ref="F26" r:id="rId28" xr:uid="{56A73993-B2DB-4837-AFF8-25F5156F7AF0}"/>
-    <hyperlink ref="F27" r:id="rId29" xr:uid="{D08A31B4-39E6-4E55-8548-0981C02FC257}"/>
-    <hyperlink ref="F28" r:id="rId30" xr:uid="{FE8D99FE-F126-4D68-9F66-9C5F628C4A63}"/>
+    <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F26" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F31" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F32" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J6" r:id="rId14" xr:uid="{63E498A3-A2A4-4285-9155-1BD341D4DCB5}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{E7FE330F-8A3B-4669-8B30-2C9E9A5FC581}"/>
+    <hyperlink ref="F11" r:id="rId16" xr:uid="{B28DEF61-CF1F-4F61-AD51-8A23E6AFB24D}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{69B674E5-918E-4C55-9473-EE3B4A218C54}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{D29AE626-DF4E-4773-AA8D-0524E4224C52}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{A59D37D6-A940-423C-9F03-07E51A21CDF8}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{82E34BDF-736F-4F98-A76A-B89827876B4D}"/>
+    <hyperlink ref="F23" r:id="rId21" xr:uid="{BA0C518E-2948-45FD-9328-DAE3823EA657}"/>
+    <hyperlink ref="F24" r:id="rId22" xr:uid="{ABDD5C1F-0AC0-49FC-B475-2179875D8E55}"/>
+    <hyperlink ref="F25" r:id="rId23" xr:uid="{4B9DD349-A0F7-425B-94BE-B03C8415B82A}"/>
+    <hyperlink ref="F33" r:id="rId24" xr:uid="{4A11A930-DB4E-4E4A-837D-1777192D19A3}"/>
+    <hyperlink ref="F9" r:id="rId25" xr:uid="{8EF245E9-A8EB-4201-BC07-0FBF381FF66F}"/>
+    <hyperlink ref="F10" r:id="rId26" xr:uid="{4AE9100C-997D-4003-B37A-A25D3512342D}"/>
+    <hyperlink ref="F34" r:id="rId27" xr:uid="{908C5348-17D7-474A-8258-C59855842B28}"/>
+    <hyperlink ref="F27" r:id="rId28" xr:uid="{56A73993-B2DB-4837-AFF8-25F5156F7AF0}"/>
+    <hyperlink ref="F28" r:id="rId29" xr:uid="{D08A31B4-39E6-4E55-8548-0981C02FC257}"/>
+    <hyperlink ref="F29" r:id="rId30" xr:uid="{FE8D99FE-F126-4D68-9F66-9C5F628C4A63}"/>
+    <hyperlink ref="F3" r:id="rId31" xr:uid="{F5E86E2A-248F-42F3-AB17-6681142F9BFC}"/>
+    <hyperlink ref="F4" r:id="rId32" xr:uid="{601160EC-ACF9-442F-97A5-481F9E5EB1DC}"/>
+    <hyperlink ref="F5" r:id="rId33" xr:uid="{17B89E03-18C3-462A-8312-8A6F215480AC}"/>
+    <hyperlink ref="F6" r:id="rId34" xr:uid="{661826B7-D085-4149-AD76-217299348812}"/>
+    <hyperlink ref="F7" r:id="rId35" xr:uid="{2AF8AEE3-3F68-4E2A-8F2C-98395C84238C}"/>
+    <hyperlink ref="J8" r:id="rId36" xr:uid="{40B31D5A-B43C-471B-92E7-4981900768AC}"/>
+    <hyperlink ref="F17" r:id="rId37" xr:uid="{E8350254-F63F-4086-A74F-FA772975FD15}"/>
+    <hyperlink ref="F18" r:id="rId38" xr:uid="{FC450F80-CCB0-4694-BF61-DF1D3F2AF604}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
